--- a/timeseries.xlsx
+++ b/timeseries.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="240" windowWidth="12312" windowHeight="4068" tabRatio="917" activeTab="9"/>
+    <workbookView xWindow="4125" yWindow="240" windowWidth="12315" windowHeight="4065" tabRatio="917"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="12" r:id="rId1"/>
@@ -21,8 +26,8 @@
     <sheet name="Sales" sheetId="24" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -235,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
@@ -696,7 +701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,7 +736,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,22 +913,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
@@ -1136,19 +1141,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" customWidth="1"/>
-    <col min="5" max="9" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1692,16 +1695,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="11" width="10.69921875" customWidth="1"/>
+    <col min="3" max="11" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2324,7 +2327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2332,7 +2335,7 @@
       <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -2932,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -2940,10 +2943,10 @@
       <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="4" width="9.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -3281,7 +3284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -3290,10 +3293,10 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -3505,7 +3508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3514,12 +3517,12 @@
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -3857,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3866,10 +3869,10 @@
       <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4080,7 +4083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4089,12 +4092,12 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4431,14 +4434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
@@ -4550,14 +4553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
@@ -4689,14 +4692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="59" t="s">
